--- a/VINAYTECH_BUSINESS_PAYMENT_DETAILS_DATAMODEL_DATASET.xlsx
+++ b/VINAYTECH_BUSINESS_PAYMENT_DETAILS_DATAMODEL_DATASET.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9215" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DimStudent" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Paymentflow" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FactPayments!$A$1:$N$768</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FactPayments!$A$1:$N$772</definedName>
     <definedName name="employee">DimStudent!$B$1:$P$100</definedName>
     <definedName name="INSTITUTES_BUSINESS_DETAILS">FactPayments!$A$1:$I$11</definedName>
     <definedName name="products">DimCourse!$A$1:$B$8</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5549" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5553" uniqueCount="647">
   <si>
     <t>StudentID</t>
   </si>
@@ -1758,6 +1758,18 @@
   </si>
   <si>
     <t>SNOW FLAKE</t>
+  </si>
+  <si>
+    <t>Azure Data Factory</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Data Lake</t>
+  </si>
+  <si>
+    <t>SNOWFLAKE</t>
   </si>
   <si>
     <t>LocID</t>
@@ -1967,11 +1979,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="26">
@@ -2045,50 +2057,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2105,13 +2078,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2146,6 +2112,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -2155,6 +2144,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2182,7 +2194,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,7 +2236,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2206,13 +2344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,145 +2368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,6 +2385,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2425,206 +2485,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2759,8 +2771,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0">
+  <autoFilter ref="A1:C19"/>
   <tableColumns count="3">
     <tableColumn id="1" name="CourseID"/>
     <tableColumn id="2" name="Coursename"/>
@@ -8088,19 +8100,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>500</v>
@@ -16914,8 +16926,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N772"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A749" workbookViewId="0">
-      <selection activeCell="A769" sqref="$A769:$XFD772"/>
+    <sheetView topLeftCell="A761" workbookViewId="0">
+      <selection activeCell="A773" sqref="A773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84259259259259" defaultRowHeight="12.6"/>
@@ -46680,7 +46692,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N768">
+  <autoFilter ref="A1:N772">
     <filterColumn colId="13">
       <filters>
         <dateGroupItem year="2017" dateTimeGrouping="year"/>
@@ -46700,10 +46712,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="$A18:$XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84259259259259" defaultRowHeight="12.6" outlineLevelCol="2"/>
@@ -46899,6 +46911,28 @@
       </c>
       <c r="C17" s="9">
         <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -46933,19 +46967,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -46953,16 +46987,16 @@
         <v>528</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -46970,16 +47004,16 @@
         <v>532</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -46987,33 +47021,33 @@
         <v>542</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -47021,16 +47055,16 @@
         <v>543</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -47038,27 +47072,27 @@
         <v>546</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -47090,87 +47124,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>528</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>532</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>542</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>611</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -47198,12 +47232,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:5">
@@ -47211,16 +47245,16 @@
         <v>518</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:4">
@@ -47228,13 +47262,13 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -47242,13 +47276,13 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C5" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E5">
         <v>1001</v>
@@ -47259,13 +47293,13 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E6">
         <v>1002</v>
@@ -47276,13 +47310,13 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E7">
         <v>1003</v>
@@ -47293,13 +47327,13 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C8" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E8">
         <v>1002</v>
@@ -47310,13 +47344,13 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C9" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E9">
         <v>1002</v>
@@ -47327,13 +47361,13 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="E10">
         <v>1006</v>
